--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H2">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I2">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J2">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.26032373495921</v>
+        <v>1.405011</v>
       </c>
       <c r="N2">
-        <v>1.26032373495921</v>
+        <v>4.215033</v>
       </c>
       <c r="O2">
-        <v>0.04190567758326794</v>
+        <v>0.04245885300950829</v>
       </c>
       <c r="P2">
-        <v>0.04190567758326794</v>
+        <v>0.05276971215004659</v>
       </c>
       <c r="Q2">
-        <v>0.2568076383642673</v>
+        <v>0.446746195963</v>
       </c>
       <c r="R2">
-        <v>0.2568076383642673</v>
+        <v>4.020715763667</v>
       </c>
       <c r="S2">
-        <v>0.004268624361911715</v>
+        <v>0.005826192717466065</v>
       </c>
       <c r="T2">
-        <v>0.004268624361911715</v>
+        <v>0.007646494948470751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H3">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I3">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J3">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2419355541604</v>
+        <v>11.92168433333333</v>
       </c>
       <c r="N3">
-        <v>11.2419355541604</v>
+        <v>35.765053</v>
       </c>
       <c r="O3">
-        <v>0.3737935846774871</v>
+        <v>0.3602683841868553</v>
       </c>
       <c r="P3">
-        <v>0.3737935846774871</v>
+        <v>0.4477572421950576</v>
       </c>
       <c r="Q3">
-        <v>2.290693129254334</v>
+        <v>3.790694254627444</v>
       </c>
       <c r="R3">
-        <v>2.290693129254334</v>
+        <v>34.116248291647</v>
       </c>
       <c r="S3">
-        <v>0.03807561394777958</v>
+        <v>0.04943593355695859</v>
       </c>
       <c r="T3">
-        <v>0.03807561394777958</v>
+        <v>0.06488141305092716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H4">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I4">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J4">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.116048763867579</v>
+        <v>0.1483576666666667</v>
       </c>
       <c r="N4">
-        <v>0.116048763867579</v>
+        <v>0.4450730000000001</v>
       </c>
       <c r="O4">
-        <v>0.003858613424215923</v>
+        <v>0.004483307505659122</v>
       </c>
       <c r="P4">
-        <v>0.003858613424215923</v>
+        <v>0.005572049873810641</v>
       </c>
       <c r="Q4">
-        <v>0.023646471265488</v>
+        <v>0.04717274329188889</v>
       </c>
       <c r="R4">
-        <v>0.023646471265488</v>
+        <v>0.424554689627</v>
       </c>
       <c r="S4">
-        <v>0.0003930486801717815</v>
+        <v>0.000615198284649438</v>
       </c>
       <c r="T4">
-        <v>0.0003930486801717815</v>
+        <v>0.0008074073076535161</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.203763232605136</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H5">
-        <v>0.203763232605136</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I5">
-        <v>0.1018626737016678</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J5">
-        <v>0.1018626737016678</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>17.4569420716506</v>
+        <v>0.218697</v>
       </c>
       <c r="N5">
-        <v>17.4569420716506</v>
+        <v>0.656091</v>
       </c>
       <c r="O5">
-        <v>0.5804421243150291</v>
+        <v>0.006608933151854636</v>
       </c>
       <c r="P5">
-        <v>0.5804421243150291</v>
+        <v>0.008213870025272926</v>
       </c>
       <c r="Q5">
-        <v>3.557082947920127</v>
+        <v>0.06953828320099999</v>
       </c>
       <c r="R5">
-        <v>3.557082947920127</v>
+        <v>0.625844548809</v>
       </c>
       <c r="S5">
-        <v>0.05912538671180467</v>
+        <v>0.0009068760804945129</v>
       </c>
       <c r="T5">
-        <v>0.05912538671180467</v>
+        <v>0.001190215240838476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.831224511761358</v>
+        <v>0.3179663333333333</v>
       </c>
       <c r="H6">
-        <v>0.831224511761358</v>
+        <v>0.9538989999999999</v>
       </c>
       <c r="I6">
-        <v>0.4155349821057026</v>
+        <v>0.1372197387470957</v>
       </c>
       <c r="J6">
-        <v>0.4155349821057026</v>
+        <v>0.1449031013610333</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.26032373495921</v>
+        <v>19.39737</v>
       </c>
       <c r="N6">
-        <v>1.26032373495921</v>
+        <v>38.79474</v>
       </c>
       <c r="O6">
-        <v>0.04190567758326794</v>
+        <v>0.5861805221461225</v>
       </c>
       <c r="P6">
-        <v>0.04190567758326794</v>
+        <v>0.4856871257558122</v>
       </c>
       <c r="Q6">
-        <v>1.04761198125272</v>
+        <v>6.167710615209999</v>
       </c>
       <c r="R6">
-        <v>1.04761198125272</v>
+        <v>37.00626369126</v>
       </c>
       <c r="S6">
-        <v>0.01741327498469058</v>
+        <v>0.08043553810752707</v>
       </c>
       <c r="T6">
-        <v>0.01741327498469058</v>
+        <v>0.07037757081314337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.831224511761358</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H7">
-        <v>0.831224511761358</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I7">
-        <v>0.4155349821057026</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J7">
-        <v>0.4155349821057026</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.2419355541604</v>
+        <v>1.405011</v>
       </c>
       <c r="N7">
-        <v>11.2419355541604</v>
+        <v>4.215033</v>
       </c>
       <c r="O7">
-        <v>0.3737935846774871</v>
+        <v>0.04245885300950829</v>
       </c>
       <c r="P7">
-        <v>0.3737935846774871</v>
+        <v>0.05276971215004659</v>
       </c>
       <c r="Q7">
-        <v>9.34457239225963</v>
+        <v>1.363579098958</v>
       </c>
       <c r="R7">
-        <v>9.34457239225963</v>
+        <v>12.272211890622</v>
       </c>
       <c r="S7">
-        <v>0.155324310520186</v>
+        <v>0.01778297093031322</v>
       </c>
       <c r="T7">
-        <v>0.155324310520186</v>
+        <v>0.02333898035672628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.831224511761358</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H8">
-        <v>0.831224511761358</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I8">
-        <v>0.4155349821057026</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J8">
-        <v>0.4155349821057026</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.116048763867579</v>
+        <v>11.92168433333333</v>
       </c>
       <c r="N8">
-        <v>0.116048763867579</v>
+        <v>35.765053</v>
       </c>
       <c r="O8">
-        <v>0.003858613424215923</v>
+        <v>0.3602683841868553</v>
       </c>
       <c r="P8">
-        <v>0.003858613424215923</v>
+        <v>0.4477572421950576</v>
       </c>
       <c r="Q8">
-        <v>0.09646257708633747</v>
+        <v>11.57012975792245</v>
       </c>
       <c r="R8">
-        <v>0.09646257708633747</v>
+        <v>104.131167821302</v>
       </c>
       <c r="S8">
-        <v>0.001603388860184387</v>
+        <v>0.1508906093546863</v>
       </c>
       <c r="T8">
-        <v>0.001603388860184387</v>
+        <v>0.198034005765619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.831224511761358</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H9">
-        <v>0.831224511761358</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I9">
-        <v>0.4155349821057026</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J9">
-        <v>0.4155349821057026</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.4569420716506</v>
+        <v>0.1483576666666667</v>
       </c>
       <c r="N9">
-        <v>17.4569420716506</v>
+        <v>0.4450730000000001</v>
       </c>
       <c r="O9">
-        <v>0.5804421243150291</v>
+        <v>0.004483307505659122</v>
       </c>
       <c r="P9">
-        <v>0.5804421243150291</v>
+        <v>0.005572049873810641</v>
       </c>
       <c r="Q9">
-        <v>14.51063815035408</v>
+        <v>0.1439827968868889</v>
       </c>
       <c r="R9">
-        <v>14.51063815035408</v>
+        <v>1.295845171982</v>
       </c>
       <c r="S9">
-        <v>0.2411940077406416</v>
+        <v>0.001877736240942194</v>
       </c>
       <c r="T9">
-        <v>0.2411940077406416</v>
+        <v>0.002464405380529461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.323946712553818</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H10">
-        <v>0.323946712553818</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I10">
-        <v>0.1619432409650816</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J10">
-        <v>0.1619432409650816</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.26032373495921</v>
+        <v>0.218697</v>
       </c>
       <c r="N10">
-        <v>1.26032373495921</v>
+        <v>0.656091</v>
       </c>
       <c r="O10">
-        <v>0.04190567758326794</v>
+        <v>0.006608933151854636</v>
       </c>
       <c r="P10">
-        <v>0.04190567758326794</v>
+        <v>0.008213870025272926</v>
       </c>
       <c r="Q10">
-        <v>0.4082777306935855</v>
+        <v>0.212247917066</v>
       </c>
       <c r="R10">
-        <v>0.4082777306935855</v>
+        <v>1.910231253594</v>
       </c>
       <c r="S10">
-        <v>0.00678634124267218</v>
+        <v>0.002768008502101912</v>
       </c>
       <c r="T10">
-        <v>0.00678634124267218</v>
+        <v>0.003632829199967095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.323946712553818</v>
+        <v>0.9705113333333335</v>
       </c>
       <c r="H11">
-        <v>0.323946712553818</v>
+        <v>2.911534000000001</v>
       </c>
       <c r="I11">
-        <v>0.1619432409650816</v>
+        <v>0.4188283401421814</v>
       </c>
       <c r="J11">
-        <v>0.1619432409650816</v>
+        <v>0.4422798496676218</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.2419355541604</v>
+        <v>19.39737</v>
       </c>
       <c r="N11">
-        <v>11.2419355541604</v>
+        <v>38.79474</v>
       </c>
       <c r="O11">
-        <v>0.3737935846774871</v>
+        <v>0.5861805221461225</v>
       </c>
       <c r="P11">
-        <v>0.3737935846774871</v>
+        <v>0.4856871257558122</v>
       </c>
       <c r="Q11">
-        <v>3.641788065512146</v>
+        <v>18.82536742186</v>
       </c>
       <c r="R11">
-        <v>3.641788065512146</v>
+        <v>112.95220453116</v>
       </c>
       <c r="S11">
-        <v>0.06053334455462794</v>
+        <v>0.2455090151141377</v>
       </c>
       <c r="T11">
-        <v>0.06053334455462794</v>
+        <v>0.21480962896478</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.323946712553818</v>
+        <v>0.368371</v>
       </c>
       <c r="H12">
-        <v>0.323946712553818</v>
+        <v>1.105113</v>
       </c>
       <c r="I12">
-        <v>0.1619432409650816</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J12">
-        <v>0.1619432409650816</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.116048763867579</v>
+        <v>1.405011</v>
       </c>
       <c r="N12">
-        <v>0.116048763867579</v>
+        <v>4.215033</v>
       </c>
       <c r="O12">
-        <v>0.003858613424215923</v>
+        <v>0.04245885300950829</v>
       </c>
       <c r="P12">
-        <v>0.003858613424215923</v>
+        <v>0.05276971215004659</v>
       </c>
       <c r="Q12">
-        <v>0.03759361555083651</v>
+        <v>0.517565307081</v>
       </c>
       <c r="R12">
-        <v>0.03759361555083651</v>
+        <v>4.658087763729</v>
       </c>
       <c r="S12">
-        <v>0.000624876363548898</v>
+        <v>0.006749772578204901</v>
       </c>
       <c r="T12">
-        <v>0.000624876363548898</v>
+        <v>0.00885863280283275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.323946712553818</v>
+        <v>0.368371</v>
       </c>
       <c r="H13">
-        <v>0.323946712553818</v>
+        <v>1.105113</v>
       </c>
       <c r="I13">
-        <v>0.1619432409650816</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J13">
-        <v>0.1619432409650816</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.4569420716506</v>
+        <v>11.92168433333333</v>
       </c>
       <c r="N13">
-        <v>17.4569420716506</v>
+        <v>35.765053</v>
       </c>
       <c r="O13">
-        <v>0.5804421243150291</v>
+        <v>0.3602683841868553</v>
       </c>
       <c r="P13">
-        <v>0.5804421243150291</v>
+        <v>0.4477572421950576</v>
       </c>
       <c r="Q13">
-        <v>5.65511899535365</v>
+        <v>4.391602779554334</v>
       </c>
       <c r="R13">
-        <v>5.65511899535365</v>
+        <v>39.524425015989</v>
       </c>
       <c r="S13">
-        <v>0.09399867880423263</v>
+        <v>0.05727261779384524</v>
       </c>
       <c r="T13">
-        <v>0.09399867880423263</v>
+        <v>0.07516654595607007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.290398797494887</v>
+        <v>0.368371</v>
       </c>
       <c r="H14">
-        <v>0.290398797494887</v>
+        <v>1.105113</v>
       </c>
       <c r="I14">
-        <v>0.1451724021767054</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J14">
-        <v>0.1451724021767054</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.26032373495921</v>
+        <v>0.1483576666666667</v>
       </c>
       <c r="N14">
-        <v>1.26032373495921</v>
+        <v>0.4450730000000001</v>
       </c>
       <c r="O14">
-        <v>0.04190567758326794</v>
+        <v>0.004483307505659122</v>
       </c>
       <c r="P14">
-        <v>0.04190567758326794</v>
+        <v>0.005572049873810641</v>
       </c>
       <c r="Q14">
-        <v>0.3659964970864193</v>
+        <v>0.05465066202766668</v>
       </c>
       <c r="R14">
-        <v>0.3659964970864193</v>
+        <v>0.4918559582490001</v>
       </c>
       <c r="S14">
-        <v>0.006083547879605519</v>
+        <v>0.0007127207617827405</v>
       </c>
       <c r="T14">
-        <v>0.006083547879605519</v>
+        <v>0.0009353991481099153</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.290398797494887</v>
+        <v>0.368371</v>
       </c>
       <c r="H15">
-        <v>0.290398797494887</v>
+        <v>1.105113</v>
       </c>
       <c r="I15">
-        <v>0.1451724021767054</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J15">
-        <v>0.1451724021767054</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>11.2419355541604</v>
+        <v>0.218697</v>
       </c>
       <c r="N15">
-        <v>11.2419355541604</v>
+        <v>0.656091</v>
       </c>
       <c r="O15">
-        <v>0.3737935846774871</v>
+        <v>0.006608933151854636</v>
       </c>
       <c r="P15">
-        <v>0.3737935846774871</v>
+        <v>0.008213870025272926</v>
       </c>
       <c r="Q15">
-        <v>3.264644566443196</v>
+        <v>0.080561632587</v>
       </c>
       <c r="R15">
-        <v>3.264644566443196</v>
+        <v>0.725054693283</v>
       </c>
       <c r="S15">
-        <v>0.05426451260587252</v>
+        <v>0.001050635912128572</v>
       </c>
       <c r="T15">
-        <v>0.05426451260587252</v>
+        <v>0.001378890569597757</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.290398797494887</v>
+        <v>0.368371</v>
       </c>
       <c r="H16">
-        <v>0.290398797494887</v>
+        <v>1.105113</v>
       </c>
       <c r="I16">
-        <v>0.1451724021767054</v>
+        <v>0.1589720894413551</v>
       </c>
       <c r="J16">
-        <v>0.1451724021767054</v>
+        <v>0.167873434246598</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.116048763867579</v>
+        <v>19.39737</v>
       </c>
       <c r="N16">
-        <v>0.116048763867579</v>
+        <v>38.79474</v>
       </c>
       <c r="O16">
-        <v>0.003858613424215923</v>
+        <v>0.5861805221461225</v>
       </c>
       <c r="P16">
-        <v>0.003858613424215923</v>
+        <v>0.4856871257558122</v>
       </c>
       <c r="Q16">
-        <v>0.03370042147791303</v>
+        <v>7.145428584269999</v>
       </c>
       <c r="R16">
-        <v>0.03370042147791303</v>
+        <v>42.87257150561999</v>
       </c>
       <c r="S16">
-        <v>0.0005601641798647081</v>
+        <v>0.09318634239539361</v>
       </c>
       <c r="T16">
-        <v>0.0005601641798647081</v>
+        <v>0.08153396576998752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.290398797494887</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H17">
-        <v>0.290398797494887</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I17">
-        <v>0.1451724021767054</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J17">
-        <v>0.1451724021767054</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.4569420716506</v>
+        <v>1.405011</v>
       </c>
       <c r="N17">
-        <v>17.4569420716506</v>
+        <v>4.215033</v>
       </c>
       <c r="O17">
-        <v>0.5804421243150291</v>
+        <v>0.04245885300950829</v>
       </c>
       <c r="P17">
-        <v>0.5804421243150291</v>
+        <v>0.05276971215004659</v>
       </c>
       <c r="Q17">
-        <v>5.069474985545236</v>
+        <v>0.40991664262</v>
       </c>
       <c r="R17">
-        <v>5.069474985545236</v>
+        <v>3.68924978358</v>
       </c>
       <c r="S17">
-        <v>0.0842641775113626</v>
+        <v>0.005345884037921572</v>
       </c>
       <c r="T17">
-        <v>0.0842641775113626</v>
+        <v>0.007016121380354221</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H18">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I18">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J18">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.26032373495921</v>
+        <v>11.92168433333333</v>
       </c>
       <c r="N18">
-        <v>1.26032373495921</v>
+        <v>35.765053</v>
       </c>
       <c r="O18">
-        <v>0.04190567758326794</v>
+        <v>0.3602683841868553</v>
       </c>
       <c r="P18">
-        <v>0.04190567758326794</v>
+        <v>0.4477572421950576</v>
       </c>
       <c r="Q18">
-        <v>0.4424223675219044</v>
+        <v>3.478191143197777</v>
       </c>
       <c r="R18">
-        <v>0.4424223675219044</v>
+        <v>31.30372028878</v>
       </c>
       <c r="S18">
-        <v>0.007353889114387936</v>
+        <v>0.04536045766382351</v>
       </c>
       <c r="T18">
-        <v>0.007353889114387936</v>
+        <v>0.0595326188484887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H19">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I19">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J19">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.2419355541604</v>
+        <v>0.1483576666666667</v>
       </c>
       <c r="N19">
-        <v>11.2419355541604</v>
+        <v>0.4450730000000001</v>
       </c>
       <c r="O19">
-        <v>0.3737935846774871</v>
+        <v>0.004483307505659122</v>
       </c>
       <c r="P19">
-        <v>0.3737935846774871</v>
+        <v>0.005572049873810641</v>
       </c>
       <c r="Q19">
-        <v>3.946354103663126</v>
+        <v>0.04328384377555556</v>
       </c>
       <c r="R19">
-        <v>3.946354103663126</v>
+        <v>0.38955459398</v>
       </c>
       <c r="S19">
-        <v>0.06559580304902099</v>
+        <v>0.0005644816176788813</v>
       </c>
       <c r="T19">
-        <v>0.06559580304902099</v>
+        <v>0.0007408450161881044</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H20">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I20">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J20">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.116048763867579</v>
+        <v>0.218697</v>
       </c>
       <c r="N20">
-        <v>0.116048763867579</v>
+        <v>0.656091</v>
       </c>
       <c r="O20">
-        <v>0.003858613424215923</v>
+        <v>0.006608933151854636</v>
       </c>
       <c r="P20">
-        <v>0.003858613424215923</v>
+        <v>0.008213870025272926</v>
       </c>
       <c r="Q20">
-        <v>0.04073760370778578</v>
+        <v>0.06380557873999999</v>
       </c>
       <c r="R20">
-        <v>0.04073760370778578</v>
+        <v>0.57425020866</v>
       </c>
       <c r="S20">
-        <v>0.0006771353404461478</v>
+        <v>0.0008321136286059923</v>
       </c>
       <c r="T20">
-        <v>0.0006771353404461478</v>
+        <v>0.00109209443735268</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.351038669867011</v>
+        <v>0.2917533333333333</v>
       </c>
       <c r="H21">
-        <v>0.351038669867011</v>
+        <v>0.8752599999999999</v>
       </c>
       <c r="I21">
-        <v>0.1754867010508426</v>
+        <v>0.1259074058530127</v>
       </c>
       <c r="J21">
-        <v>0.1754867010508426</v>
+        <v>0.1329573555452496</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.4569420716506</v>
+        <v>19.39737</v>
       </c>
       <c r="N21">
-        <v>17.4569420716506</v>
+        <v>38.79474</v>
       </c>
       <c r="O21">
-        <v>0.5804421243150291</v>
+        <v>0.5861805221461225</v>
       </c>
       <c r="P21">
-        <v>0.5804421243150291</v>
+        <v>0.4856871257558122</v>
       </c>
       <c r="Q21">
-        <v>6.12806172477769</v>
+        <v>5.659247355399999</v>
       </c>
       <c r="R21">
-        <v>6.12806172477769</v>
+        <v>33.9554841324</v>
       </c>
       <c r="S21">
-        <v>0.1018598735469875</v>
+        <v>0.07380446890498277</v>
       </c>
       <c r="T21">
-        <v>0.1018598735469875</v>
+        <v>0.06457567586286586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3686035</v>
+      </c>
+      <c r="H22">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J22">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.405011</v>
+      </c>
+      <c r="N22">
+        <v>4.215033</v>
+      </c>
+      <c r="O22">
+        <v>0.04245885300950829</v>
+      </c>
+      <c r="P22">
+        <v>0.05276971215004659</v>
+      </c>
+      <c r="Q22">
+        <v>0.5178919721384999</v>
+      </c>
+      <c r="R22">
+        <v>3.107351832831</v>
+      </c>
+      <c r="S22">
+        <v>0.006754032745602532</v>
+      </c>
+      <c r="T22">
+        <v>0.005909482661662584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3686035</v>
+      </c>
+      <c r="H23">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J23">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.92168433333333</v>
+      </c>
+      <c r="N23">
+        <v>35.765053</v>
+      </c>
+      <c r="O23">
+        <v>0.3602683841868553</v>
+      </c>
+      <c r="P23">
+        <v>0.4477572421950576</v>
+      </c>
+      <c r="Q23">
+        <v>4.394374571161833</v>
+      </c>
+      <c r="R23">
+        <v>26.366247426971</v>
+      </c>
+      <c r="S23">
+        <v>0.05730876581754166</v>
+      </c>
+      <c r="T23">
+        <v>0.05014265857395266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3686035</v>
+      </c>
+      <c r="H24">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J24">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1483576666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.4450730000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.004483307505659122</v>
+      </c>
+      <c r="P24">
+        <v>0.005572049873810641</v>
+      </c>
+      <c r="Q24">
+        <v>0.05468515518516667</v>
+      </c>
+      <c r="R24">
+        <v>0.328110931111</v>
+      </c>
+      <c r="S24">
+        <v>0.0007131706006058686</v>
+      </c>
+      <c r="T24">
+        <v>0.0006239930213296436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3686035</v>
+      </c>
+      <c r="H25">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J25">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.218697</v>
+      </c>
+      <c r="N25">
+        <v>0.656091</v>
+      </c>
+      <c r="O25">
+        <v>0.006608933151854636</v>
+      </c>
+      <c r="P25">
+        <v>0.008213870025272926</v>
+      </c>
+      <c r="Q25">
+        <v>0.0806124796395</v>
+      </c>
+      <c r="R25">
+        <v>0.483674877837</v>
+      </c>
+      <c r="S25">
+        <v>0.001051299028523646</v>
+      </c>
+      <c r="T25">
+        <v>0.0009198405775169178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3686035</v>
+      </c>
+      <c r="H26">
+        <v>0.7372069999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1590724258163551</v>
+      </c>
+      <c r="J26">
+        <v>0.1119862591794973</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.39737</v>
+      </c>
+      <c r="N26">
+        <v>38.79474</v>
+      </c>
+      <c r="O26">
+        <v>0.5861805221461225</v>
+      </c>
+      <c r="P26">
+        <v>0.4856871257558122</v>
+      </c>
+      <c r="Q26">
+        <v>7.149938472794999</v>
+      </c>
+      <c r="R26">
+        <v>28.59975389118</v>
+      </c>
+      <c r="S26">
+        <v>0.09324515762408135</v>
+      </c>
+      <c r="T26">
+        <v>0.05439028434503548</v>
       </c>
     </row>
   </sheetData>
